--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2569476418162367</v>
+        <v>0.2616422292922379</v>
       </c>
       <c r="C2">
-        <v>1.137699816079917</v>
+        <v>1.03031647517663</v>
       </c>
       <c r="D2">
-        <v>3.571731210002966</v>
+        <v>3.375314179760817</v>
       </c>
       <c r="E2">
-        <v>1.889902433990434</v>
+        <v>1.837202813997632</v>
       </c>
       <c r="F2">
-        <v>1.918591820929205</v>
+        <v>1.863384125668241</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.7365203080340559</v>
+        <v>-0.689055782712207</v>
       </c>
       <c r="C3">
-        <v>1.776784003742642</v>
+        <v>1.586502696976844</v>
       </c>
       <c r="D3">
-        <v>14.22002890469597</v>
+        <v>13.20147267346463</v>
       </c>
       <c r="E3">
-        <v>3.770945359547917</v>
+        <v>3.633383089279828</v>
       </c>
       <c r="F3">
-        <v>3.789649730196295</v>
+        <v>3.651397942595873</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4357078963748887</v>
+        <v>0.4613554873173039</v>
       </c>
       <c r="C4">
-        <v>1.264883320631162</v>
+        <v>1.13843404674352</v>
       </c>
       <c r="D4">
-        <v>5.751814380942682</v>
+        <v>5.247316402875179</v>
       </c>
       <c r="E4">
-        <v>2.398294056395646</v>
+        <v>2.290702163720805</v>
       </c>
       <c r="F4">
-        <v>2.419650477146876</v>
+        <v>2.299171784155603</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2616422292922379</v>
+        <v>-0.06427428475178958</v>
       </c>
       <c r="C2">
-        <v>1.03031647517663</v>
+        <v>0.7043999611326027</v>
       </c>
       <c r="D2">
-        <v>3.375314179760817</v>
+        <v>1.085782427793486</v>
       </c>
       <c r="E2">
-        <v>1.837202813997632</v>
+        <v>1.042008842473751</v>
       </c>
       <c r="F2">
-        <v>1.863384125668241</v>
+        <v>1.06570812435619</v>
       </c>
       <c r="G2">
         <v>21</v>
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.689055782712207</v>
+        <v>0.1087012210651252</v>
       </c>
       <c r="C3">
-        <v>1.586502696976844</v>
+        <v>0.9180492773420234</v>
       </c>
       <c r="D3">
-        <v>13.20147267346463</v>
+        <v>1.469677934787732</v>
       </c>
       <c r="E3">
-        <v>3.633383089279828</v>
+        <v>1.212302740567607</v>
       </c>
       <c r="F3">
-        <v>3.651397942595873</v>
+        <v>1.235833313332441</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4613554873173039</v>
+        <v>0.09424136352415405</v>
       </c>
       <c r="C4">
-        <v>1.13843404674352</v>
+        <v>1.50554817053667</v>
       </c>
       <c r="D4">
-        <v>5.247316402875179</v>
+        <v>10.11276014084247</v>
       </c>
       <c r="E4">
-        <v>2.290702163720805</v>
+        <v>3.18005662541447</v>
       </c>
       <c r="F4">
-        <v>2.299171784155603</v>
+        <v>3.257157141059632</v>
       </c>
       <c r="G4">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06427428475178958</v>
+        <v>-0.05880547838015793</v>
       </c>
       <c r="C2">
-        <v>0.7043999611326027</v>
+        <v>0.6749290290549438</v>
       </c>
       <c r="D2">
-        <v>1.085782427793486</v>
+        <v>1.036571427464883</v>
       </c>
       <c r="E2">
-        <v>1.042008842473751</v>
+        <v>1.018121519006883</v>
       </c>
       <c r="F2">
-        <v>1.06570812435619</v>
+        <v>1.040340913673013</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,19 +452,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1087012210651252</v>
+        <v>0.1087012210528854</v>
       </c>
       <c r="C3">
-        <v>0.9180492773420234</v>
+        <v>0.9180492773297835</v>
       </c>
       <c r="D3">
-        <v>1.469677934787732</v>
+        <v>1.469677934780255</v>
       </c>
       <c r="E3">
-        <v>1.212302740567607</v>
+        <v>1.212302740564524</v>
       </c>
       <c r="F3">
-        <v>1.235833313332441</v>
+        <v>1.2358333133304</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09424136352415405</v>
+        <v>0.09424136353897376</v>
       </c>
       <c r="C4">
-        <v>1.50554817053667</v>
+        <v>1.505548170551489</v>
       </c>
       <c r="D4">
-        <v>10.11276014084247</v>
+        <v>10.11276014086356</v>
       </c>
       <c r="E4">
-        <v>3.18005662541447</v>
+        <v>3.180056625417786</v>
       </c>
       <c r="F4">
-        <v>3.257157141059632</v>
+        <v>3.257157141062581</v>
       </c>
       <c r="G4">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_matched/ifoCAst_error_tables_filtered_latest.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05880547838015793</v>
+        <v>-0.06184127475628475</v>
       </c>
       <c r="C2">
-        <v>0.6749290290549438</v>
+        <v>0.6728703294834245</v>
       </c>
       <c r="D2">
-        <v>1.036571427464883</v>
+        <v>1.036433932025511</v>
       </c>
       <c r="E2">
-        <v>1.018121519006883</v>
+        <v>1.018053992686788</v>
       </c>
       <c r="F2">
-        <v>1.040340913673013</v>
+        <v>1.040087243427768</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1087012210528854</v>
+        <v>0.1029130003429865</v>
       </c>
       <c r="C3">
-        <v>0.9180492773297835</v>
+        <v>0.8770720106948019</v>
       </c>
       <c r="D3">
-        <v>1.469677934780255</v>
+        <v>1.404277130504535</v>
       </c>
       <c r="E3">
-        <v>1.212302740564524</v>
+        <v>1.185021995789334</v>
       </c>
       <c r="F3">
-        <v>1.2358333133304</v>
+        <v>1.207077218135037</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09424136353897376</v>
+        <v>0.1140919098201663</v>
       </c>
       <c r="C4">
-        <v>1.505548170551489</v>
+        <v>1.461248407423022</v>
       </c>
       <c r="D4">
-        <v>10.11276014086356</v>
+        <v>9.665212501827879</v>
       </c>
       <c r="E4">
-        <v>3.180056625417786</v>
+        <v>3.108892487981513</v>
       </c>
       <c r="F4">
-        <v>3.257157141062581</v>
+        <v>3.179909416460013</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
